--- a/admissions/static/xlsx/application_template.xlsx
+++ b/admissions/static/xlsx/application_template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t xml:space="preserve">Candidate application 
 Evaluation form</t>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t xml:space="preserve">Final score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x</t>
   </si>
   <si>
     <t xml:space="preserve">School Rating</t>
@@ -545,9 +548,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>766440</xdr:colOff>
+      <xdr:colOff>766080</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>403920</xdr:rowOff>
+      <xdr:rowOff>403560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -556,13 +559,13 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId1"/>
-        <a:srcRect l="0" t="16978" r="87167" b="79537"/>
+        <a:srcRect l="0" t="16973" r="87156" b="79528"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="123120" y="48600"/>
-          <a:ext cx="2414880" cy="355320"/>
+          <a:ext cx="2414520" cy="354960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -584,11 +587,11 @@
   </sheetPr>
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.81"/>
@@ -781,180 +784,180 @@
       <c r="C16" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="D16" s="19" t="n">
-        <v>7</v>
-      </c>
-      <c r="E16" s="20" t="n">
+      <c r="D16" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="20" t="e">
         <f aca="false">C16*D16</f>
-        <v>28</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F16" s="21"/>
-      <c r="G16" s="22" t="n">
+      <c r="G16" s="22" t="e">
         <f aca="false">(F16*D16)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="19" t="n">
         <v>5</v>
       </c>
-      <c r="D17" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="20" t="n">
+      <c r="D17" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="20" t="e">
         <f aca="false">C17*D17</f>
-        <v>5</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F17" s="21"/>
-      <c r="G17" s="22" t="n">
+      <c r="G17" s="22" t="e">
         <f aca="false">(F17*D17)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="D18" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="E18" s="20" t="n">
+      <c r="D18" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="20" t="e">
         <f aca="false">C18*D18</f>
-        <v>15</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F18" s="21"/>
-      <c r="G18" s="22" t="n">
+      <c r="G18" s="22" t="e">
         <f aca="false">(F18*D18)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="19" t="n">
         <v>30</v>
       </c>
-      <c r="D19" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="20" t="n">
+      <c r="D19" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="20" t="e">
         <f aca="false">C19*D19</f>
-        <v>30</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F19" s="24"/>
-      <c r="G19" s="22" t="n">
+      <c r="G19" s="22" t="e">
         <f aca="false">(F19*D19)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="19" t="n">
         <v>7</v>
       </c>
-      <c r="D20" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="20" t="n">
+      <c r="D20" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="20" t="e">
         <f aca="false">C20*D20</f>
-        <v>7</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F20" s="24"/>
-      <c r="G20" s="22" t="n">
+      <c r="G20" s="22" t="e">
         <f aca="false">(F20*D20)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="28.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" s="18"/>
       <c r="C21" s="19" t="n">
         <v>5</v>
       </c>
-      <c r="D21" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="20" t="n">
+      <c r="D21" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="20" t="e">
         <f aca="false">C21*D21</f>
-        <v>5</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F21" s="24"/>
-      <c r="G21" s="22" t="n">
+      <c r="G21" s="22" t="e">
         <f aca="false">(F21*D21)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="28.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" s="18"/>
       <c r="C22" s="19" t="n">
         <v>5</v>
       </c>
-      <c r="D22" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="20" t="n">
+      <c r="D22" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="20" t="e">
         <f aca="false">C22*D22</f>
-        <v>5</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F22" s="24"/>
-      <c r="G22" s="22" t="n">
+      <c r="G22" s="22" t="e">
         <f aca="false">(F22*D22)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="55.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="26" t="n">
         <v>5</v>
       </c>
-      <c r="D23" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="27" t="n">
+      <c r="D23" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="27" t="e">
         <f aca="false">C23*D23</f>
-        <v>5</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F23" s="24"/>
-      <c r="G23" s="22" t="n">
+      <c r="G23" s="22" t="e">
         <f aca="false">(F23*D23)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" s="28"/>
       <c r="C24" s="28"/>
       <c r="D24" s="28"/>
       <c r="E24" s="28"/>
       <c r="F24" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" s="29" t="n">
+        <v>36</v>
+      </c>
+      <c r="G24" s="29" t="e">
         <f aca="false">SUM(G16:G23)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
